--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125092a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125092a.xlsx
@@ -1,43 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="dados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>coeficientes de variação das estimativas de percentual de pessoas que foram furtadas de cada tipo de bem no último furto, na população de 10 anos ou mais de idade que foi vítima de furto, no período de referência de 365 dias (%)</t>
+  </si>
+  <si>
+    <t>dinheiro, cartão dedébito ou crédito, ou cheque</t>
+  </si>
+  <si>
+    <t>telefone celular</t>
+  </si>
+  <si>
+    <t>documentos ou objetos pessoais</t>
+  </si>
+  <si>
+    <t>carro, motocicletaou bicicleta</t>
+  </si>
+  <si>
+    <t>outro</t>
+  </si>
+  <si>
+    <t>total (1)(2)</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>homens</t>
+  </si>
+  <si>
+    <t>mulheres</t>
+  </si>
+  <si>
+    <t>cor ou raça</t>
+  </si>
+  <si>
+    <t>branca</t>
+  </si>
+  <si>
+    <t>preta ou parda</t>
+  </si>
+  <si>
+    <t>preta</t>
+  </si>
+  <si>
+    <t>parda</t>
+  </si>
+  <si>
+    <t>grupos de idade</t>
+  </si>
+  <si>
+    <t>10 a 24 anos</t>
+  </si>
+  <si>
+    <t>25 a 34 anos</t>
+  </si>
+  <si>
+    <t>35 a 39 anos</t>
+  </si>
+  <si>
+    <t>40 a 49 anos</t>
+  </si>
+  <si>
+    <t>50 anos ou mais</t>
+  </si>
+  <si>
+    <t>nível de instrução</t>
+  </si>
+  <si>
+    <t>sem instrução</t>
+  </si>
+  <si>
+    <t>fundamental incompleto ou equivalente</t>
+  </si>
+  <si>
+    <t>fundamental completo ou equivalente</t>
+  </si>
+  <si>
+    <t>médio incompleto ou equivalente</t>
+  </si>
+  <si>
+    <t>médio completo ou equivalente</t>
+  </si>
+  <si>
+    <t>superior incompleto ou equivalente</t>
+  </si>
+  <si>
+    <t>superior completo ou equivalente</t>
+  </si>
+  <si>
+    <t>classes de rendimento mensal domiciliar per capita</t>
+  </si>
+  <si>
+    <t>total (3)(4)</t>
+  </si>
+  <si>
+    <t>sem rendimento a menos de 1/4 do salário mínimo (3) (5)</t>
+  </si>
+  <si>
+    <t>1/4 a menos de 1/2 salário mínimo (3)</t>
+  </si>
+  <si>
+    <t>1/2 a menos de 1 salário mínimo (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 a menos de 2 salários mínimos (3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
+  </si>
+  <si>
+    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
+  </si>
+  <si>
+    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,37 +168,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -84,83 +187,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -448,704 +484,580 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sexo, cor ou raça, grupos de idade, nível de instrução e classes de rendimento mensal domiciliar per capita</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Coeficientes de variação das estimativas de percentual de pessoas que foram furtadas de cada tipo de bem no último furto, na população de 10 anos ou mais de idade que foi vítima de furto, no período de referência de 365 dias (%)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Dinheiro, cartão de
-débito ou crédito, 
-ou cheque</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Telefone celular</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Documentos ou objetos pessoais</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Carro, motocicleta
-ou bicicleta</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Total (1)(2)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>1.8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.68</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.01</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2.63</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.46</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Sexo</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Homens</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>2.34</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2.46</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.7</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2.52</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.64</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Mulheres</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>2.32</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2.06</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2.59</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>5.06</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2.17</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Cor ou raça</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>2.44</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2.49</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2.67</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>3.41</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.02</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Preta ou parda</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>2.48</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2.18</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2.77</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3.53</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.87</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Preta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>5.63</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.58</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>6.55</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>8.06</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>4.49</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Parda</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>2.65</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2.35</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>3.01</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3.57</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2.06</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Grupos de idade</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>10 a 24 anos</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>4.09</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2.32</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>4.15</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>4.59</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>4.06</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>25 a 34 anos</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
         <v>3.3</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.24</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3.71</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>4.63</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>2.74</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35 a 39 anos</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>5.28</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5.2</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>5.77</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>3.67</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>40 a 49 anos</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>3.48</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4.33</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4.27</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>4.79</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>2.64</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>50 anos ou mais</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>2.72</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.29</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>3.59</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>5.22</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>2.15</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Nível de instrução</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Sem instrução</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
         <v>5.23</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>9.109999999999999</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>6.96</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>9.74</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>3.59</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
         <v>3.01</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>3.1</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>3.6</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>4.02</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>2.17</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
         <v>5.41</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.85</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>6.05</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>6.07</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>4.05</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Médio incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>6.35</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.22</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>6.5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>8.26</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>5.75</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Médio completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
         <v>3.05</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3.01</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>3.61</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>4.34</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>2.81</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Superior incompleto ou equivalente</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
         <v>5.8</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4.49</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>6.25</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>9.630000000000001</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>5.65</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Superior completo ou equivalente</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
         <v>4.2</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4.81</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>4.48</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>7.89</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3.9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Classes de rendimento mensal domiciliar per capita</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Total (3)(4)</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
         <v>1.8</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.69</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>2.63</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>1.45</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Sem rendimento a menos de 1/4 do salário mínimo (3) (5)</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
         <v>5.95</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>6.61</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>7.72</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>9.73</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>4.98</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1/4 a menos de 1/2 salário mínimo (3)</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
         <v>4.85</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4.54</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>5.83</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>5.59</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>3.35</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1/2 a menos de 1 salário mínimo (3)</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
         <v>3.5</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3.22</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>4.28</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>4.25</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>2.91</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 a menos de 2 salários mínimos (3) </t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
         <v>3.1</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3.06</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>3.49</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>4.15</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>2.47</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
         <v>3.03</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3.32</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>3.31</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>5.15</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>2.76</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Fonte: IBGE, Diretoria de Pesquisas, Coordenação de Trabalho e Rendimento, Pesquisa Nacional por Amostra de Domicílios 2009.</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>(1) Inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) Inclusive as pessoas com nível de instrução não determinado. (3) Ex-</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125092a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125092a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>coeficientes de variação das estimativas de percentual de pessoas que foram furtadas de cada tipo de bem no último furto, na população de 10 anos ou mais de idade que foi vítima de furto, no período de referência de 365 dias (%)</t>
   </si>
@@ -37,18 +37,12 @@
     <t>total (1)(2)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>nível de instrução</t>
-  </si>
-  <si>
     <t>sem instrução</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>superior completo ou equivalente</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (3)(4)</t>
   </si>
   <si>
@@ -122,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
-  </si>
-  <si>
-    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
   </si>
 </sst>
 </file>
@@ -485,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,25 +522,40 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>2.34</v>
+      </c>
+      <c r="C5">
+        <v>2.46</v>
+      </c>
+      <c r="D5">
+        <v>2.7</v>
+      </c>
+      <c r="E5">
+        <v>2.52</v>
+      </c>
+      <c r="F5">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="C6">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="D6">
-        <v>2.7</v>
+        <v>2.59</v>
       </c>
       <c r="E6">
-        <v>2.52</v>
+        <v>5.06</v>
       </c>
       <c r="F6">
-        <v>1.64</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -569,44 +563,59 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="C7">
-        <v>2.06</v>
+        <v>2.49</v>
       </c>
       <c r="D7">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="E7">
-        <v>5.06</v>
+        <v>3.41</v>
       </c>
       <c r="F7">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B8">
+        <v>2.48</v>
+      </c>
+      <c r="C8">
+        <v>2.18</v>
+      </c>
+      <c r="D8">
+        <v>2.77</v>
+      </c>
+      <c r="E8">
+        <v>3.53</v>
+      </c>
+      <c r="F8">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>2.44</v>
+        <v>5.63</v>
       </c>
       <c r="C9">
-        <v>2.49</v>
+        <v>5.58</v>
       </c>
       <c r="D9">
-        <v>2.67</v>
+        <v>6.55</v>
       </c>
       <c r="E9">
-        <v>3.41</v>
+        <v>8.06</v>
       </c>
       <c r="F9">
-        <v>2.02</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -614,19 +623,19 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="C10">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="D10">
-        <v>2.77</v>
+        <v>3.01</v>
       </c>
       <c r="E10">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="F10">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -634,19 +643,19 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>5.63</v>
+        <v>4.09</v>
       </c>
       <c r="C11">
-        <v>5.58</v>
+        <v>2.32</v>
       </c>
       <c r="D11">
-        <v>6.55</v>
+        <v>4.15</v>
       </c>
       <c r="E11">
-        <v>8.06</v>
+        <v>4.59</v>
       </c>
       <c r="F11">
-        <v>4.49</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -654,44 +663,59 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="C12">
-        <v>2.35</v>
+        <v>3.24</v>
       </c>
       <c r="D12">
-        <v>3.01</v>
+        <v>3.71</v>
       </c>
       <c r="E12">
-        <v>3.57</v>
+        <v>4.63</v>
       </c>
       <c r="F12">
-        <v>2.06</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5.28</v>
+      </c>
+      <c r="D13">
+        <v>5.2</v>
+      </c>
+      <c r="E13">
+        <v>5.77</v>
+      </c>
+      <c r="F13">
+        <v>3.67</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>4.09</v>
+        <v>3.48</v>
       </c>
       <c r="C14">
-        <v>2.32</v>
+        <v>4.33</v>
       </c>
       <c r="D14">
-        <v>4.15</v>
+        <v>4.27</v>
       </c>
       <c r="E14">
-        <v>4.59</v>
+        <v>4.79</v>
       </c>
       <c r="F14">
-        <v>4.06</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -699,19 +723,19 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="C15">
-        <v>3.24</v>
+        <v>4.29</v>
       </c>
       <c r="D15">
-        <v>3.71</v>
+        <v>3.59</v>
       </c>
       <c r="E15">
-        <v>4.63</v>
+        <v>5.22</v>
       </c>
       <c r="F15">
-        <v>2.74</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -719,19 +743,19 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>5.23</v>
       </c>
       <c r="C16">
-        <v>5.28</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D16">
-        <v>5.2</v>
+        <v>6.96</v>
       </c>
       <c r="E16">
-        <v>5.77</v>
+        <v>9.74</v>
       </c>
       <c r="F16">
-        <v>3.67</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -739,19 +763,19 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>3.48</v>
+        <v>3.01</v>
       </c>
       <c r="C17">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="D17">
-        <v>4.27</v>
+        <v>3.6</v>
       </c>
       <c r="E17">
-        <v>4.79</v>
+        <v>4.02</v>
       </c>
       <c r="F17">
-        <v>2.64</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -759,44 +783,59 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>2.72</v>
+        <v>5.41</v>
       </c>
       <c r="C18">
-        <v>4.29</v>
+        <v>4.85</v>
       </c>
       <c r="D18">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="E18">
-        <v>5.22</v>
+        <v>6.07</v>
       </c>
       <c r="F18">
-        <v>2.15</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B19">
+        <v>6.35</v>
+      </c>
+      <c r="C19">
+        <v>4.22</v>
+      </c>
+      <c r="D19">
+        <v>6.5</v>
+      </c>
+      <c r="E19">
+        <v>8.26</v>
+      </c>
+      <c r="F19">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>5.23</v>
+        <v>3.05</v>
       </c>
       <c r="C20">
-        <v>9.109999999999999</v>
+        <v>3.01</v>
       </c>
       <c r="D20">
-        <v>6.96</v>
+        <v>3.61</v>
       </c>
       <c r="E20">
-        <v>9.74</v>
+        <v>4.34</v>
       </c>
       <c r="F20">
-        <v>3.59</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -804,19 +843,19 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>3.01</v>
+        <v>5.8</v>
       </c>
       <c r="C21">
-        <v>3.1</v>
+        <v>4.49</v>
       </c>
       <c r="D21">
-        <v>3.6</v>
+        <v>6.25</v>
       </c>
       <c r="E21">
-        <v>4.02</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F21">
-        <v>2.17</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -824,19 +863,19 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>5.41</v>
+        <v>4.2</v>
       </c>
       <c r="C22">
-        <v>4.85</v>
+        <v>4.81</v>
       </c>
       <c r="D22">
-        <v>6.05</v>
+        <v>4.48</v>
       </c>
       <c r="E22">
-        <v>6.07</v>
+        <v>7.89</v>
       </c>
       <c r="F22">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -844,19 +883,19 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.35</v>
+        <v>1.8</v>
       </c>
       <c r="C23">
-        <v>4.22</v>
+        <v>1.69</v>
       </c>
       <c r="D23">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>8.26</v>
+        <v>2.63</v>
       </c>
       <c r="F23">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -864,19 +903,19 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>3.05</v>
+        <v>5.95</v>
       </c>
       <c r="C24">
-        <v>3.01</v>
+        <v>6.61</v>
       </c>
       <c r="D24">
-        <v>3.61</v>
+        <v>7.72</v>
       </c>
       <c r="E24">
-        <v>4.34</v>
+        <v>9.73</v>
       </c>
       <c r="F24">
-        <v>2.81</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -884,19 +923,19 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>5.8</v>
+        <v>4.85</v>
       </c>
       <c r="C25">
-        <v>4.49</v>
+        <v>4.54</v>
       </c>
       <c r="D25">
-        <v>6.25</v>
+        <v>5.83</v>
       </c>
       <c r="E25">
-        <v>9.630000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="F25">
-        <v>5.65</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -904,154 +943,59 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="C26">
-        <v>4.81</v>
+        <v>3.22</v>
       </c>
       <c r="D26">
-        <v>4.48</v>
+        <v>4.28</v>
       </c>
       <c r="E26">
-        <v>7.89</v>
+        <v>4.25</v>
       </c>
       <c r="F26">
-        <v>3.9</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B27">
+        <v>3.1</v>
+      </c>
+      <c r="C27">
+        <v>3.06</v>
+      </c>
+      <c r="D27">
+        <v>3.49</v>
+      </c>
+      <c r="E27">
+        <v>4.15</v>
+      </c>
+      <c r="F27">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B28">
-        <v>1.8</v>
+        <v>3.03</v>
       </c>
       <c r="C28">
-        <v>1.69</v>
+        <v>3.32</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3.31</v>
       </c>
       <c r="E28">
-        <v>2.63</v>
+        <v>5.15</v>
       </c>
       <c r="F28">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>5.95</v>
-      </c>
-      <c r="C29">
-        <v>6.61</v>
-      </c>
-      <c r="D29">
-        <v>7.72</v>
-      </c>
-      <c r="E29">
-        <v>9.73</v>
-      </c>
-      <c r="F29">
-        <v>4.98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>4.85</v>
-      </c>
-      <c r="C30">
-        <v>4.54</v>
-      </c>
-      <c r="D30">
-        <v>5.83</v>
-      </c>
-      <c r="E30">
-        <v>5.59</v>
-      </c>
-      <c r="F30">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>3.5</v>
-      </c>
-      <c r="C31">
-        <v>3.22</v>
-      </c>
-      <c r="D31">
-        <v>4.28</v>
-      </c>
-      <c r="E31">
-        <v>4.25</v>
-      </c>
-      <c r="F31">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>3.1</v>
-      </c>
-      <c r="C32">
-        <v>3.06</v>
-      </c>
-      <c r="D32">
-        <v>3.49</v>
-      </c>
-      <c r="E32">
-        <v>4.15</v>
-      </c>
-      <c r="F32">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>3.03</v>
-      </c>
-      <c r="C33">
-        <v>3.32</v>
-      </c>
-      <c r="D33">
-        <v>3.31</v>
-      </c>
-      <c r="E33">
-        <v>5.15</v>
-      </c>
-      <c r="F33">
         <v>2.76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
